--- a/org-tweetyproject-arg-rankings/src/main/java/org/tweetyproject/arg/rankings/rankingbasedextension/evaluation/results/final_results/Threshold_evaluation_for_COUNTING_using_absolute_argument strength_all_withoutbigafs.xlsx
+++ b/org-tweetyproject-arg-rankings/src/main/java/org/tweetyproject/arg/rankings/rankingbasedextension/evaluation/results/final_results/Threshold_evaluation_for_COUNTING_using_absolute_argument strength_all_withoutbigafs.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TweetyProject\org-tweetyproject-arg-rankings\src\main\java\org\tweetyproject\arg\rankings\rankingbasedextension\evaluation\results\final_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{69512DDB-4EDF-46B7-B417-8E36FA032B9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE65CB-B5CF-4D69-9232-08548A7D2958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="25080" yWindow="3360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Threshold_evaluation_for_COUNTI" sheetId="1" r:id="rId1"/>
@@ -3025,19 +3025,19 @@
     <t>0.999</t>
   </si>
   <si>
-    <t>COUNTING mit Epsilon=0.01</t>
-  </si>
-  <si>
-    <t>COUNTING mit Epsilon=0.001</t>
-  </si>
-  <si>
-    <t>COUNTING mit Epsilon=0.00010</t>
+    <t>Count. with Epsilon=0.01</t>
+  </si>
+  <si>
+    <t>Count. with Epsilon=0.001</t>
+  </si>
+  <si>
+    <t>Count. with Epsilon=0.00010</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3515,9 +3515,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20 % - Akzent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3605,7 +3604,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>COUNTING mit Epsilon=0.01</c:v>
+                  <c:v>Count. with Epsilon=0.01</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3633,7 +3632,7 @@
               </c:extLst>
               <c:f>Threshold_evaluation_for_COUNTI!$A$2:$A$1048576</c:f>
               <c:strCache>
-                <c:ptCount val="1001"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -6633,9 +6632,6 @@
                 </c:pt>
                 <c:pt idx="999">
                   <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="1000">
-                  <c:v>1,000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6645,14 +6641,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Threshold_evaluation_for_COUNTI!$B$2:$B$1002</c15:sqref>
+                    <c15:sqref>Threshold_evaluation_for_COUNTI!$B$2:$B$1001</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Threshold_evaluation_for_COUNTI!$B$3:$B$1002</c:f>
+              <c:f>Threshold_evaluation_for_COUNTI!$B$3:$B$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -9649,9 +9645,6 @@
                 </c:pt>
                 <c:pt idx="998">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="999">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9672,7 +9665,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>COUNTING mit Epsilon=0.001</c:v>
+                  <c:v>Count. with Epsilon=0.001</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9701,7 +9694,7 @@
               </c:extLst>
               <c:f>Threshold_evaluation_for_COUNTI!$A$2:$A$1048576</c:f>
               <c:strCache>
-                <c:ptCount val="1001"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -12701,9 +12694,6 @@
                 </c:pt>
                 <c:pt idx="999">
                   <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="1000">
-                  <c:v>1,000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -12713,14 +12703,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Threshold_evaluation_for_COUNTI!$C$2:$C$1002</c15:sqref>
+                    <c15:sqref>Threshold_evaluation_for_COUNTI!$C$2:$C$1001</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Threshold_evaluation_for_COUNTI!$C$3:$C$1002</c:f>
+              <c:f>Threshold_evaluation_for_COUNTI!$C$3:$C$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -15717,9 +15707,6 @@
                 </c:pt>
                 <c:pt idx="998">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="999">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15740,7 +15727,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>COUNTING mit Epsilon=0.00010</c:v>
+                  <c:v>Count. with Epsilon=0.00010</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -15769,7 +15756,7 @@
               </c:extLst>
               <c:f>Threshold_evaluation_for_COUNTI!$A$2:$A$1048576</c:f>
               <c:strCache>
-                <c:ptCount val="1001"/>
+                <c:ptCount val="1000"/>
                 <c:pt idx="0">
                   <c:v>0.0</c:v>
                 </c:pt>
@@ -18769,9 +18756,6 @@
                 </c:pt>
                 <c:pt idx="999">
                   <c:v>0.999</c:v>
-                </c:pt>
-                <c:pt idx="1000">
-                  <c:v>1,000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -18781,14 +18765,14 @@
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                   <c15:fullRef>
-                    <c15:sqref>Threshold_evaluation_for_COUNTI!$D$2:$D$1002</c15:sqref>
+                    <c15:sqref>Threshold_evaluation_for_COUNTI!$D$2:$D$1001</c15:sqref>
                   </c15:fullRef>
                 </c:ext>
               </c:extLst>
-              <c:f>Threshold_evaluation_for_COUNTI!$D$3:$D$1002</c:f>
+              <c:f>Threshold_evaluation_for_COUNTI!$D$3:$D$1001</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="1000"/>
+                <c:ptCount val="999"/>
                 <c:pt idx="0">
                   <c:v>6</c:v>
                 </c:pt>
@@ -21785,9 +21769,6 @@
                 </c:pt>
                 <c:pt idx="998">
                   <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="999">
-                  <c:v>9</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21825,7 +21806,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -21848,8 +21829,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.45808456008216364"/>
-              <c:y val="0.7415327702669634"/>
+              <c:x val="0.43815697899250583"/>
+              <c:y val="0.87079675441585813"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -21865,7 +21846,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -21903,7 +21884,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -21953,7 +21934,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
                       <a:schemeClr val="tx1">
                         <a:lumMod val="65000"/>
@@ -21967,13 +21948,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="de-DE"/>
-                  <a:t># principles</a:t>
+                  <a:t># principles fulfilled</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="de-DE" baseline="0"/>
-                  <a:t> fulfilled</a:t>
-                </a:r>
-                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -21990,7 +21966,7 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
                     <a:schemeClr val="tx1">
                       <a:lumMod val="65000"/>
@@ -22022,7 +21998,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
                     <a:lumMod val="65000"/>
@@ -22064,7 +22040,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -22111,7 +22087,7 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200" baseline="0"/>
       </a:pPr>
       <a:endParaRPr lang="de-DE"/>
     </a:p>
@@ -22685,15 +22661,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1142999</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>1142997</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23017,11 +22993,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1002"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37046,20 +37022,6 @@
         <v>7</v>
       </c>
     </row>
-    <row r="1002" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1002" s="1">
-        <v>1000</v>
-      </c>
-      <c r="B1002">
-        <v>9</v>
-      </c>
-      <c r="C1002">
-        <v>9</v>
-      </c>
-      <c r="D1002">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/org-tweetyproject-arg-rankings/src/main/java/org/tweetyproject/arg/rankings/rankingbasedextension/evaluation/results/final_results/Threshold_evaluation_for_COUNTING_using_absolute_argument strength_all_withoutbigafs.xlsx
+++ b/org-tweetyproject-arg-rankings/src/main/java/org/tweetyproject/arg/rankings/rankingbasedextension/evaluation/results/final_results/Threshold_evaluation_for_COUNTING_using_absolute_argument strength_all_withoutbigafs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TweetyProject\org-tweetyproject-arg-rankings\src\main\java\org\tweetyproject\arg\rankings\rankingbasedextension\evaluation\results\final_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BE65CB-B5CF-4D69-9232-08548A7D2958}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58338A21-F24D-4D44-806E-07F10ADEEE82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25080" yWindow="3360" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Threshold_evaluation_for_COUNTI" sheetId="1" r:id="rId1"/>
@@ -21829,8 +21829,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.43815697899250583"/>
-              <c:y val="0.87079675441585813"/>
+              <c:x val="0.43338647160264093"/>
+              <c:y val="0.79719455450234322"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -21947,7 +21947,7 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="de-DE"/>
+                  <a:rPr lang="de-DE" baseline="0"/>
                   <a:t># principles fulfilled</a:t>
                 </a:r>
               </a:p>
@@ -22027,6 +22027,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.9080487574922906E-2"/>
+          <c:y val="0.86834511928047209"/>
+          <c:w val="0.8179869034950682"/>
+          <c:h val="0.11183888638124057"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -22660,16 +22670,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1142997</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>628650</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22996,8 +23006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
